--- a/xlsx/牛仔_intext.xlsx
+++ b/xlsx/牛仔_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E4%BB%94_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>牛仔 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_牛仔</t>
+    <t>牛仔 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_牛仔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%A0%B4</t>
   </si>
   <si>
-    <t>牧場</t>
+    <t>牧场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>澳洲大陸</t>
+    <t>澳洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E9%A9%AC%E4%BA%BA</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%C2%B7%E5%A5%A7%E5%B4%94</t>
   </si>
   <si>
-    <t>金·奧崔</t>
+    <t>金·奥崔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%C2%B7%E7%B4%84%E7%BF%B0%E6%A3%AE</t>
   </si>
   <si>
-    <t>班·約翰森</t>
+    <t>班·约翰森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E5%B0%8F%E5%AD%90</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E4%BB%94%E8%A4%B2</t>
   </si>
   <si>
-    <t>牛仔褲</t>
+    <t>牛仔裤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E7%89%87</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
